--- a/Marksheets/Amit Thapa.xlsx
+++ b/Marksheets/Amit Thapa.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="65426" yWindow="65426" windowWidth="19420" windowHeight="10420" tabRatio="601" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="65430" yWindow="65430" windowWidth="19425" windowHeight="10425" tabRatio="601" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Grading Sheet" sheetId="1" state="hidden" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -328,7 +328,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="27">
     <font>
       <sz val="11"/>
@@ -1635,7 +1641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -1645,7 +1651,7 @@
       <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.75390625" customWidth="1"/>
     <col min="2" max="2" width="39.75390625" customWidth="1"/>
@@ -2156,11 +2162,11 @@
       </c>
       <c r="E13" s="31" t="str">
         <f>G13</f>
-        <v>Excellent report presentation in tabular format with proper chart for enrollment and weekly report for selected week </v>
+        <v>Excellent report presentation in tabular format with proper chart for enrollment and weekly report for selected week</v>
       </c>
       <c r="F13" s="31" t="str">
         <f>G13</f>
-        <v>Excellent report presentation in tabular format with proper chart for enrollment and weekly report for selected week </v>
+        <v>Excellent report presentation in tabular format with proper chart for enrollment and weekly report for selected week</v>
       </c>
       <c r="G13" s="31" t="s">
         <v>42</v>
@@ -2383,7 +2389,7 @@
       </c>
       <c r="H18" s="44" t="str">
         <f>I18</f>
-        <v>User Manual is good. Contains all varieties of forms. </v>
+        <v>User Manual is good. Contains all varieties of forms.</v>
       </c>
       <c r="I18" s="44" t="s">
         <v>61</v>
@@ -2397,14 +2403,14 @@
       </c>
       <c r="L18" s="44" t="str">
         <f>M18</f>
-        <v>User Manual is below average. Is textual only. </v>
+        <v>User Manual is below average. Is textual only.</v>
       </c>
       <c r="M18" s="44" t="s">
         <v>63</v>
       </c>
       <c r="N18" s="44" t="str">
         <f>M18</f>
-        <v>User Manual is below average. Is textual only. </v>
+        <v>User Manual is below average. Is textual only.</v>
       </c>
       <c r="O18" s="45" t="s">
         <v>29</v>
@@ -2689,7 +2695,7 @@
         <v>97</v>
       </c>
       <c r="C25" s="74">
-        <f t="shared" si="6" ref="C25:D25">SUM(C10:C24)</f>
+        <f t="shared" si="6" ref="C25">SUM(C10:C24)</f>
         <v>100</v>
       </c>
       <c r="D25" s="74">
@@ -30029,18 +30035,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A13">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A49">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.25390625" customWidth="1"/>
     <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.75390625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.625" customWidth="1"/>
     <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
     <col min="6" max="26" width="7.75390625" customWidth="1"/>
@@ -30656,7 +30662,7 @@
     <row r="22" spans="1:26" ht="14.25" customHeight="1">
       <c r="A22" s="76" t="str">
         <f>"London Met ID: "</f>
-        <v>London Met ID: </v>
+        <v>London Met ID:</v>
       </c>
       <c r="B22" s="25" t="str">
         <f>'Grading Sheet'!C7</f>
@@ -31038,7 +31044,7 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" spans="6:26" ht="14.5">
+    <row r="36" spans="6:26" ht="15">
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -31366,7 +31372,7 @@
       <c r="C46" s="82"/>
       <c r="D46" s="93" t="str">
         <f>IF('Grading Sheet'!D18&gt;'Grading Sheet'!C18*'Grading Sheet'!$G$8,'Grading Sheet'!G18,IF('Grading Sheet'!D18&gt;'Grading Sheet'!C18*'Grading Sheet'!$I$8,'Grading Sheet'!I18,IF('Grading Sheet'!D18&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C18,'Grading Sheet'!K18,IF('Grading Sheet'!D18&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C18,'Grading Sheet'!M18,'Grading Sheet'!O18))))</f>
-        <v>User Manual is below average. Is textual only. </v>
+        <v>User Manual is below average. Is textual only.</v>
       </c>
       <c r="E46" s="85"/>
       <c r="F46" s="3"/>
@@ -31468,7 +31474,7 @@
       <c r="C49" s="82"/>
       <c r="D49" s="93" t="str">
         <f>IF('Grading Sheet'!D21&gt;'Grading Sheet'!C21*'Grading Sheet'!$G$8,'Grading Sheet'!G21,IF('Grading Sheet'!D21&gt;'Grading Sheet'!C21*'Grading Sheet'!$I$8,'Grading Sheet'!I21,IF('Grading Sheet'!D21&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C21,'Grading Sheet'!K21,IF('Grading Sheet'!D21&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C21,'Grading Sheet'!M21,'Grading Sheet'!O21))))</f>
-        <v>Very poorly written </v>
+        <v>Very poorly written</v>
       </c>
       <c r="E49" s="85"/>
       <c r="F49" s="3"/>
@@ -31626,12 +31632,12 @@
       </c>
       <c r="B54" s="82"/>
       <c r="C54" s="56" t="str">
-        <f>IF('Grading Sheet'!D25&gt;90,"A+",IF('Grading Sheet'!D25&gt;85,"A",IF('Grading Sheet'!D25&gt;80,"B+",IF('Grading Sheet'!D25&gt;75,"B",IF('Grading Sheet'!D25&gt;70,"C+",IF('Grading Sheet'!D25&gt;65,"C",IF('Grading Sheet'!D25&gt;60,"D+",IF('Grading Sheet'!D25&gt;55,"D",IF('Grading Sheet'!D25&gt;50,"E+",IF('Grading Sheet'!D25&gt;45,"F+","F"))))))))))</f>
-        <v>F+</v>
+        <f>IF('Grading Sheet'!D25&gt;95,"A+",IF('Grading Sheet'!D25&gt;85,"A",IF('Grading Sheet'!D25&gt;75,"A-",IF('Grading Sheet'!D25&gt;67,"B+",IF('Grading Sheet'!D25&gt;63,"B",IF('Grading Sheet'!D25&gt;57,"C+",IF('Grading Sheet'!D25&gt;53,"C",IF('Grading Sheet'!D25&gt;47,"D+",IF('Grading Sheet'!D25&gt;43,"D",IF('Grading Sheet'!D25&gt;37,"F1","F2"))))))))))</f>
+        <v>D+</v>
       </c>
       <c r="D54" s="89" t="str">
-        <f>IF('Grading Sheet'!D25&gt;90,"A+",IF('Grading Sheet'!D25&gt;85,"A",IF('Grading Sheet'!D25&gt;80,"B+",IF('Grading Sheet'!D25&gt;75,"B",IF('Grading Sheet'!D25&gt;70,"C+",IF('Grading Sheet'!D25&gt;65,"C",IF('Grading Sheet'!D25&gt;60,"D+",IF('Grading Sheet'!D25&gt;55,"D",IF('Grading Sheet'!D25&gt;50,"E+",IF('Grading Sheet'!D25&gt;45,"F+","F"))))))))))</f>
-        <v>F+</v>
+        <f>IF('Grading Sheet'!D25&gt;95,"A+",IF('Grading Sheet'!D25&gt;85,"A",IF('Grading Sheet'!D25&gt;75,"A-",IF('Grading Sheet'!D25&gt;67,"B+",IF('Grading Sheet'!D25&gt;63,"B",IF('Grading Sheet'!D25&gt;57,"C+",IF('Grading Sheet'!D25&gt;53,"C",IF('Grading Sheet'!D25&gt;47,"D+",IF('Grading Sheet'!D25&gt;43,"D",IF('Grading Sheet'!D25&gt;37,"F1","F2"))))))))))</f>
+        <v>D+</v>
       </c>
       <c r="E54" s="82"/>
       <c r="F54" s="3"/>
@@ -58345,12 +58351,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.75390625" customWidth="1"/>
     <col min="2" max="2" width="6.50390625" customWidth="1"/>
